--- a/biology/Botanique/Cardamine_flexuosa/Cardamine_flexuosa.xlsx
+++ b/biology/Botanique/Cardamine_flexuosa/Cardamine_flexuosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardamine flexuosa, la Cardamine flexueuse ou Cardamine des bois, est une espèce de plante herbacée de la famille des Brassicacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cardamine sylvatica Link
 Cardamine hirsuta subsp. sylvatica (Link) Syme.</t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cardamine flexueuse est une plante herbacée bisannuelle, rarement annuelle, à tige généralement poilue, surtout dans le bas. Les feuilles basales à 7-13 folioles, ne sont pas disposées en rosette et sont plus petites que les feuilles caulinaires, qui ont 11-15 folioles. Les siliques mûres, qui font un angle avec leur pédicelle, ne dépassent pas ou peu les fleurs épanouies. 
-La distinction de cette espèce par rapport à la cardamine hirsute ou c. hérissée (Cardamine hirsuta) n'est pas toujours facile[1]. La cardamine flexueuse peut atteindre une taille supérieure (jusqu'à 40 cm) et la floraison est plus tardive (avril-juillet) ; elle préfère les bois humides et les talus ombragés.
+La distinction de cette espèce par rapport à la cardamine hirsute ou c. hérissée (Cardamine hirsuta) n'est pas toujours facile. La cardamine flexueuse peut atteindre une taille supérieure (jusqu'à 40 cm) et la floraison est plus tardive (avril-juillet) ; elle préfère les bois humides et les talus ombragés.
 			Plante entière, montrant la tige flexueuse.
 			Inflorescence.
 			Plante avec des siliques mûres.
